--- a/biology/Zoologie/Amblyeleotris_yanoi/Amblyeleotris_yanoi.xlsx
+++ b/biology/Zoologie/Amblyeleotris_yanoi/Amblyeleotris_yanoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobie drapeau
  Amblyeleotris yanoi, communément nommé Gobie drapeau, est un poisson marin benthique de la famille des Gobies à crevette.
-Il est présent dans les eaux tropicales de la zone ouest de l'Océan Pacifique[2]. Sa taille maximale est de 13 cm pour les mâles et de 5,8 cm pour les femelles[3].
+Il est présent dans les eaux tropicales de la zone ouest de l'Océan Pacifique. Sa taille maximale est de 13 cm pour les mâles et de 5,8 cm pour les femelles.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Aonuma &amp; Yoshino, 1996 : Two new species of the genus Amblyeleotris (Pisces: Gobiidae) from the Ryukyu Islands, Japan. Ichthyological Research, vol. 43, n. 2, p. 161-168[4] (introduction).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Aonuma &amp; Yoshino, 1996 : Two new species of the genus Amblyeleotris (Pisces: Gobiidae) from the Ryukyu Islands, Japan. Ichthyological Research, vol. 43, n. 2, p. 161-168 (introduction).</t>
         </is>
       </c>
     </row>
